--- a/src/cloud/tests/GL/GL_Argentina/OpeningPeriodsITC_Test.xlsx
+++ b/src/cloud/tests/GL/GL_Argentina/OpeningPeriodsITC_Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbethi\Documents\GitHub\SeleniumFramework_2021B\src\cloud\tests\GL\GL_Argentina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F4DCB9-4261-4E0F-A227-470BB5472A06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BF1565-050A-42B5-9357-E684FC5A586D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Execute</t>
   </si>
@@ -61,13 +61,22 @@
     <t>OpeningPeriodsITC</t>
   </si>
   <si>
-    <t>InvoiceNumber</t>
-  </si>
-  <si>
     <t>{GL_Arg_username}</t>
   </si>
   <si>
     <t>Navigate</t>
+  </si>
+  <si>
+    <t>Ledger</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>ITC CSR USGAAP</t>
+  </si>
+  <si>
+    <t>JAN-21</t>
   </si>
 </sst>
 </file>
@@ -158,7 +167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -182,6 +191,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -245,7 +258,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -297,7 +310,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -499,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="I1" sqref="I1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -513,12 +526,12 @@
     <col min="6" max="6" width="0.81640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.7265625" style="3" customWidth="1"/>
     <col min="8" max="8" width="0.81640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.7265625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="0.81640625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="3"/>
+    <col min="9" max="10" width="20.7265625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="0.81640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,13 +541,14 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="G1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>10</v>
       </c>
+      <c r="J1" s="14"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
@@ -548,10 +562,13 @@
         <v>8</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -559,7 +576,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>7</v>
@@ -567,14 +584,20 @@
       <c r="G3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C5" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="https://rws-fap1313-fs.oracledemos.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
